--- a/bases/tabla2.xlsx
+++ b/bases/tabla2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\Proyectos_de_R\Libro Data Science\_book_production\intro_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E827C7-C2A6-49A2-88BA-A324657D8C40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6377A2-41E5-459F-872F-A79E9D78F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
+    <workbookView xWindow="1850" yWindow="1165" windowWidth="17350" windowHeight="8915" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
-    <t>Operador</t>
-  </si>
-  <si>
     <t>Operación</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>`abs(-10.2)`</t>
+  </si>
+  <si>
+    <t>Función</t>
   </si>
 </sst>
 </file>
@@ -468,151 +468,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>20.085999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1.732</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1.099</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0.47699999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1.099</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>3.1419999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>10.199999999999999</v>
